--- a/comparison/python_times.xlsx
+++ b/comparison/python_times.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\porat\Desktop\git_repos\assignment_3_oop\comparison\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B703D92-5D00-498F-8058-6E9F4B7E88E8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9FA009A-1569-435F-832A-162C142380B0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>G_10_80_0</t>
   </si>
@@ -43,9 +43,6 @@
   </si>
   <si>
     <t>G_30000_240000_0</t>
-  </si>
-  <si>
-    <t>0-29999</t>
   </si>
   <si>
     <t>G_100_800_1</t>
@@ -411,26 +408,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" t="s">
-        <v>20</v>
-      </c>
       <c r="D1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -519,7 +516,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14">
         <v>7.0000000000000001E-3</v>
@@ -533,7 +530,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B16">
         <v>0.01</v>
@@ -547,7 +544,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B18">
         <v>0.14699999999999999</v>
@@ -561,7 +558,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B20">
         <v>1.5</v>
@@ -575,7 +572,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B22">
         <v>4.9000000000000004</v>
@@ -589,7 +586,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B24">
         <v>27.1</v>
@@ -603,7 +600,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B26">
         <v>6.0000000000000001E-3</v>
@@ -617,7 +614,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B28">
         <v>3.4000000000000002E-2</v>
@@ -631,7 +628,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B30">
         <v>0.27600000000000002</v>
@@ -645,7 +642,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B32">
         <v>3.1</v>
@@ -657,9 +654,9 @@
         <v>0.45400000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B34">
         <v>5.0999999999999996</v>
@@ -671,9 +668,9 @@
         <v>1.204</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B36">
         <v>24.8</v>
@@ -683,12 +680,6 @@
       </c>
       <c r="D36">
         <v>1.2549999999999999</v>
-      </c>
-      <c r="G36">
-        <v>1.2549999999999999</v>
-      </c>
-      <c r="I36" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
